--- a/sample.xlsx
+++ b/sample.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8964" windowWidth="17280" xWindow="2196" yWindow="2196"/>
+  </bookViews>
   <sheets>
     <sheet name="Saturday" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sunday" sheetId="2" state="visible" r:id="rId2"/>
@@ -12,7 +15,7 @@
     <sheet name="Friday" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -34,6 +37,7 @@
     <font>
       <name val="Arial"/>
       <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -42,11 +46,17 @@
       <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -60,24 +70,23 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -150,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -340,6 +349,8 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -349,14 +360,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -381,6 +393,16 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ঢাকা</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -393,6 +415,16 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>saturday</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>saturday meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -405,6 +437,16 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Hamburger</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -417,6 +459,16 @@
           <t>School</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>school magazine paragraph</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -429,6 +481,16 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cricketx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cricket world cup 2023 points table</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -441,6 +503,16 @@
           <t>Momey</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>money heist season 6 release date</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -453,6 +525,16 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ইন্টারনেট</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>internet download manager</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -465,6 +547,16 @@
           <t>Look</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>look before you leap meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -477,6 +569,16 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hello meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -487,6 +589,16 @@
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ব্যাংক</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
     </row>
@@ -501,14 +613,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -533,6 +646,16 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ঢাকা</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -545,6 +668,16 @@
           <t>Sunday</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sunday</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sunday suspense sherlock holmes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -557,6 +690,16 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Hamburger</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -569,6 +712,16 @@
           <t>School</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>school magazine paragraph</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -581,6 +734,16 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cricketx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cricket world cup 2023 points table</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -593,6 +756,16 @@
           <t>Momey</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>money heist season 6 release date</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -605,6 +778,16 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ইন্টারনেট</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>internet download manager</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -617,6 +800,16 @@
           <t>Look</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>look before you leap meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -629,6 +822,16 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hello meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -639,6 +842,16 @@
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ব্যাংক</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
     </row>
@@ -653,14 +866,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -685,6 +899,16 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ঢাকা</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -697,6 +921,16 @@
           <t>Dates</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dates</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>dates price in saudi arabia</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -709,6 +943,16 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Hamburger</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -721,6 +965,16 @@
           <t>School</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>school magazine paragraph</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -733,6 +987,16 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cricketx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cricket world cup 2023 points table</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -745,6 +1009,16 @@
           <t>Momey</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>money heist season 6 release date</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -757,6 +1031,16 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ইন্টারনেট</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>internet download manager</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -769,6 +1053,16 @@
           <t>Look</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>look before you leap meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -781,6 +1075,16 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hello meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -791,6 +1095,16 @@
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ব্যাংক</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
     </row>
@@ -807,11 +1121,11 @@
   </sheetPr>
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1"/>
     <row r="2">
@@ -845,7 +1159,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ঢাকা বিশ্ববিদ্যালয়</t>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
         </is>
       </c>
     </row>
@@ -1058,14 +1372,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -1090,6 +1405,16 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ঢাকা</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -1102,6 +1427,16 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>saturday</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>saturday meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -1114,6 +1449,16 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Hamburger</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -1126,6 +1471,16 @@
           <t>School</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>school magazine paragraph</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -1138,6 +1493,16 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cricketx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cricket world cup 2023 points table</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -1150,6 +1515,16 @@
           <t>Pathao</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pathao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pathao parcel tracking</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -1162,6 +1537,16 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ইন্টারনেট</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>internet download manager</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -1174,6 +1559,16 @@
           <t>Look</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>look before you leap meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -1186,6 +1581,16 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hello meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -1196,6 +1601,16 @@
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ব্যাংক</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
     </row>
@@ -1210,14 +1625,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -1242,6 +1658,16 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ঢাকা</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -1254,6 +1680,16 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>saturday</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>saturday meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -1266,6 +1702,16 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Hamburger</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -1278,6 +1724,16 @@
           <t>School</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>school magazine paragraph</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -1290,6 +1746,16 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cricketx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cricket world cup 2023 points table</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -1302,6 +1768,16 @@
           <t>Momey</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>money</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>money heist season 6 release date</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -1314,6 +1790,16 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ইন্টারনেট</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>internet download manager</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -1326,6 +1812,16 @@
           <t>Goods</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>goods</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>goods meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -1338,6 +1834,16 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hello meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -1348,6 +1854,16 @@
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ব্যাংক</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
     </row>
@@ -1362,20 +1878,21 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E12"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="12.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" max="3" min="2" style="3" width="10.13"/>
-    <col customWidth="1" max="4" min="4" style="3" width="8.130000000000001"/>
-    <col customWidth="1" max="5" min="5" style="3" width="8.25"/>
-    <col customWidth="1" max="6" min="6" style="3" width="5"/>
+    <col customWidth="1" max="3" min="2" width="10.109375"/>
+    <col customWidth="1" max="4" min="4" width="8.109375"/>
+    <col customWidth="1" max="5" min="5" width="8.21875"/>
+    <col customWidth="1" max="6" min="6" width="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
     <row r="2">
       <c r="D2" s="1" t="inlineStr">
         <is>
@@ -1400,6 +1917,16 @@
           <t>Dhaka</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ঢাকা</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ঢাকা স্টক এক্সচেঞ্জ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="inlineStr">
@@ -1412,6 +1939,16 @@
           <t>Saturday</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>saturday</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>saturday meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="inlineStr">
@@ -1424,6 +1961,16 @@
           <t>Baby</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Hamburger</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="2" t="inlineStr">
@@ -1436,6 +1983,16 @@
           <t>School</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>school magazine paragraph</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="inlineStr">
@@ -1448,6 +2005,16 @@
           <t>Cricket</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>cricketx</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cricket world cup 2023 points table</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="inlineStr">
@@ -1460,6 +2027,16 @@
           <t>Geography</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>geography</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>geography and environment subject</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="inlineStr">
@@ -1472,6 +2049,16 @@
           <t>Int</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ইন্টারনেট</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>internet download manager</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="2" t="inlineStr">
@@ -1484,6 +2071,16 @@
           <t>Look</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>look</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>look before you leap meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="inlineStr">
@@ -1496,6 +2093,16 @@
           <t>Hello</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Hello</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>hello meaning in bengali</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="inlineStr">
@@ -1506,6 +2113,16 @@
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>By</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ব্যাংক</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ব্যাডমিন্টন কোর্টের মাপ</t>
         </is>
       </c>
     </row>
